--- a/data/map_and_qualityassesment.xlsx
+++ b/data/map_and_qualityassesment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zulmacucunuba/Documents/GIT/mpox-SR/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Candida/Documents/GIT/mpox-SR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E0B64E8-A191-DF45-AB72-419EC48495B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4702C38F-9932-B64C-8784-75D4E11F3935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="4" xr2:uid="{E63EEF4E-920E-9F4E-AC97-44C7F5724636}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{E63EEF4E-920E-9F4E-AC97-44C7F5724636}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="13" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="48">
   <si>
     <t>Yes</t>
   </si>
@@ -154,13 +154,43 @@
   </si>
   <si>
     <t>References</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Camerum</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Morrocos</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +210,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,9 +238,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,7 +260,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E50D1A-BA1B-D14C-A6AD-7C0DABF84CA2}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +588,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -564,95 +601,95 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -660,10 +697,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,6 +716,102 @@
         <v>35</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
     </row>
@@ -1906,7 +2039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5033C8-608D-4C44-80D1-9BC1E0008579}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
